--- a/biology/Histoire de la zoologie et de la botanique/Johann_Maria_Hildebrandt/Johann_Maria_Hildebrandt.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johann_Maria_Hildebrandt/Johann_Maria_Hildebrandt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Maria Hildebrandt (19 mars 1847 - 29 mai 1881) est un botaniste prussien, fils de Theodor Hildebrandt. Ses publications sont signées « Hildebrandt ».
 </t>
@@ -511,7 +523,9 @@
           <t>Jeunesse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se penche très tôt sur la construction mécanique, mais une explosion provoque la perte de son œil droit et il se tourne vers l'horticulture. Il travaille dans le jardin botanique de Halle et dans le jardin botanique de Berlin.
 </t>
@@ -542,7 +556,9 @@
           <t>Explorations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1872, il se rend en Afrique, en particulier en Égypte et voyage au sein de l'expédition de Werner Munzinger dans les régions de l'Afar et de la Somalie. De retour d'un voyage de repos aux Indes orientales, il découvre Zanzibar et retourne en Somalie. Il rentre en Europe en 1874 puis retourne de nouveau en Afrique explorer entièrement les Comores. En 1875, il tente d'atteindre le Kilimandjaro et le mont Kenya, où il retourne en 1877 mais échoue à trois jours de marche du sommet.
 Auteur de nombreuses découvertes, mais affaibli par la fièvre, Hildebrandt rentre en Allemagne en novembre 1877 et vit à Berlin jusqu'en 1879.
